--- a/gedaLib/partsList.xlsx
+++ b/gedaLib/partsList.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22221"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="18380" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="20480" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Symbols" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="28">
   <si>
     <t>Symbol Name</t>
   </si>
@@ -89,6 +89,21 @@
   </si>
   <si>
     <t>yes</t>
+  </si>
+  <si>
+    <t>Author</t>
+  </si>
+  <si>
+    <t>Michael DeLibero</t>
+  </si>
+  <si>
+    <t>bnc_molex_73100-0090.sym</t>
+  </si>
+  <si>
+    <t>connectors</t>
+  </si>
+  <si>
+    <t>bnc_molex_73100-0090.fp</t>
   </si>
 </sst>
 </file>
@@ -145,8 +160,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -159,13 +176,15 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="9">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -495,21 +514,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="E1:F2"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="18.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="54.1640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1">
+    <row r="1" spans="1:7" s="2" customFormat="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -528,8 +547,11 @@
       <c r="F1" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -548,8 +570,11 @@
       <c r="F2" s="1">
         <v>41089</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="G2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -565,8 +590,11 @@
       <c r="F3" s="1">
         <v>41089</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -582,8 +610,11 @@
       <c r="F4" s="1">
         <v>41089</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="G4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -599,8 +630,11 @@
       <c r="F5" s="1">
         <v>41089</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -618,6 +652,29 @@
       </c>
       <c r="F6" s="1">
         <v>41089</v>
+      </c>
+      <c r="G6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="1">
+        <v>41094</v>
+      </c>
+      <c r="F7" s="1">
+        <v>41094</v>
+      </c>
+      <c r="G7" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -633,10 +690,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -650,7 +707,7 @@
     <col min="7" max="7" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1">
+    <row r="1" spans="1:8" s="2" customFormat="1">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -672,8 +729,11 @@
       <c r="G1" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>19</v>
       </c>
@@ -691,6 +751,32 @@
       </c>
       <c r="G2" s="1">
         <v>41089</v>
+      </c>
+      <c r="H2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="1">
+        <v>41094</v>
+      </c>
+      <c r="G3" s="1">
+        <v>41094</v>
+      </c>
+      <c r="H3" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
